--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.5486307152733</v>
+        <v>89.70687353458268</v>
       </c>
       <c r="D2" t="n">
-        <v>2.664951273563115</v>
+        <v>3.239208712323556</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.90943437256743</v>
+        <v>88.75561692240301</v>
       </c>
       <c r="D3" t="n">
-        <v>2.579124175525354</v>
+        <v>2.845602011593391</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.31233947850028</v>
+        <v>87.65502096914544</v>
       </c>
       <c r="D4" t="n">
-        <v>2.607894373293096</v>
+        <v>2.717203387674259</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.77211353953388</v>
+        <v>86.94469019831421</v>
       </c>
       <c r="D5" t="n">
-        <v>3.298432181659942</v>
+        <v>2.797082239419253</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.04874751686722</v>
+        <v>85.70118504146382</v>
       </c>
       <c r="D6" t="n">
-        <v>3.12156103591124</v>
+        <v>2.868570717777099</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0019298802732</v>
+        <v>85.40064046870637</v>
       </c>
       <c r="D7" t="n">
-        <v>3.173014342353861</v>
+        <v>3.418389811349705</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99983086252075</v>
+        <v>84.36673067938277</v>
       </c>
       <c r="D8" t="n">
-        <v>2.817462720503932</v>
+        <v>2.849601933709644</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.73149538392369</v>
+        <v>82.40194220031974</v>
       </c>
       <c r="D9" t="n">
-        <v>2.881844009788403</v>
+        <v>2.935972163495904</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.0438181933646</v>
+        <v>81.4699955086606</v>
       </c>
       <c r="D10" t="n">
-        <v>2.960779865436661</v>
+        <v>3.055153076818424</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99755060562134</v>
+        <v>80.94729281884</v>
       </c>
       <c r="D11" t="n">
-        <v>2.973343242620911</v>
+        <v>2.910199265716045</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.58279095364945</v>
+        <v>79.86726805454703</v>
       </c>
       <c r="D12" t="n">
-        <v>3.264096111996405</v>
+        <v>3.339112697793884</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36731991503378</v>
+        <v>79.01273934609844</v>
       </c>
       <c r="D13" t="n">
-        <v>3.290269282896232</v>
+        <v>3.878257015240938</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.29671588550542</v>
+        <v>77.60455550684992</v>
       </c>
       <c r="D14" t="n">
-        <v>3.193877870273859</v>
+        <v>3.505769554645058</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.66851156904357</v>
+        <v>77.07033962073544</v>
       </c>
       <c r="D15" t="n">
-        <v>3.629729387551014</v>
+        <v>2.961193674003001</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.59156610517144</v>
+        <v>75.61062122983346</v>
       </c>
       <c r="D16" t="n">
-        <v>3.004653814740591</v>
+        <v>3.333770442564839</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.88511642152724</v>
+        <v>75.51802563691807</v>
       </c>
       <c r="D17" t="n">
-        <v>2.98646309213011</v>
+        <v>3.049055698824239</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.57941264696655</v>
+        <v>74.12076819992916</v>
       </c>
       <c r="D18" t="n">
-        <v>2.98562259116641</v>
+        <v>3.384955373232214</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.94942054634998</v>
+        <v>73.39427066952831</v>
       </c>
       <c r="D19" t="n">
-        <v>3.246217037777215</v>
+        <v>3.26438885608238</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.58236102626836</v>
+        <v>72.16342551611361</v>
       </c>
       <c r="D20" t="n">
-        <v>3.487431212226006</v>
+        <v>3.440019222049827</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.35785867944435</v>
+        <v>70.95808926967906</v>
       </c>
       <c r="D21" t="n">
-        <v>3.16862245645629</v>
+        <v>3.148982937314304</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.34073770668249</v>
+        <v>70.08369674466481</v>
       </c>
       <c r="D22" t="n">
-        <v>3.426023895584075</v>
+        <v>3.356396288822141</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.72317620197845</v>
+        <v>69.22092525076611</v>
       </c>
       <c r="D23" t="n">
-        <v>3.138559184723467</v>
+        <v>3.342683624772359</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.828880745793</v>
+        <v>67.89824527169762</v>
       </c>
       <c r="D24" t="n">
-        <v>2.880551727502232</v>
+        <v>3.328775652540789</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.19925267077616</v>
+        <v>66.46215769377015</v>
       </c>
       <c r="D25" t="n">
-        <v>3.585281162190546</v>
+        <v>3.3729019475451</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.42013865604135</v>
+        <v>66.46615770524309</v>
       </c>
       <c r="D26" t="n">
-        <v>2.933040681101731</v>
+        <v>3.323382306788216</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.80220683028648</v>
+        <v>65.02601524460623</v>
       </c>
       <c r="D27" t="n">
-        <v>3.148376170759759</v>
+        <v>3.177092973301172</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.85911711608839</v>
+        <v>63.29346187115767</v>
       </c>
       <c r="D28" t="n">
-        <v>3.50107940802359</v>
+        <v>3.695110412576325</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.53923999916847</v>
+        <v>63.74656335571311</v>
       </c>
       <c r="D29" t="n">
-        <v>3.201184680549678</v>
+        <v>3.30831631261211</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.18353446101383</v>
+        <v>61.83216725205087</v>
       </c>
       <c r="D30" t="n">
-        <v>3.531429745482459</v>
+        <v>3.479720337950959</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.65153844210246</v>
+        <v>60.90575740381447</v>
       </c>
       <c r="D31" t="n">
-        <v>3.804045191466721</v>
+        <v>3.704994855980612</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.87449323449702</v>
+        <v>59.85726416483872</v>
       </c>
       <c r="D32" t="n">
-        <v>3.091754645170097</v>
+        <v>3.164398561724584</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.04492455531319</v>
+        <v>58.66601553656576</v>
       </c>
       <c r="D33" t="n">
-        <v>3.61889180313868</v>
+        <v>3.30102994291013</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.29881758719373</v>
+        <v>58.63813467933792</v>
       </c>
       <c r="D34" t="n">
-        <v>4.108252499977725</v>
+        <v>3.615632638361788</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99184061162314</v>
+        <v>56.6838757237079</v>
       </c>
       <c r="D35" t="n">
-        <v>3.065995335464412</v>
+        <v>3.607956122151736</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.78994793541564</v>
+        <v>55.52815262288251</v>
       </c>
       <c r="D36" t="n">
-        <v>3.566813760938202</v>
+        <v>3.394320049991971</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.3961853067109</v>
+        <v>55.00928532593219</v>
       </c>
       <c r="D37" t="n">
-        <v>4.444751786399024</v>
+        <v>3.582472516315311</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.07505686199487</v>
+        <v>54.34541168777969</v>
       </c>
       <c r="D38" t="n">
-        <v>3.399579522055008</v>
+        <v>3.767726898402548</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.36802042724146</v>
+        <v>53.11395891823608</v>
       </c>
       <c r="D39" t="n">
-        <v>3.400271539882284</v>
+        <v>3.913232806420171</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.63822107746055</v>
+        <v>51.29872818665647</v>
       </c>
       <c r="D40" t="n">
-        <v>3.753226483584927</v>
+        <v>3.936588882641094</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92289530470944</v>
+        <v>50.83485776379046</v>
       </c>
       <c r="D41" t="n">
-        <v>3.648096982448875</v>
+        <v>3.959597746289046</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.76710430280803</v>
+        <v>50.03385774850994</v>
       </c>
       <c r="D42" t="n">
-        <v>3.798363102875008</v>
+        <v>4.123525490616389</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.70411699907765</v>
+        <v>49.00915260960347</v>
       </c>
       <c r="D43" t="n">
-        <v>3.767893844048537</v>
+        <v>3.85117001459065</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.65780492921731</v>
+        <v>47.67996267786813</v>
       </c>
       <c r="D44" t="n">
-        <v>4.002095583067379</v>
+        <v>3.59446560013696</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.19155291370114</v>
+        <v>47.1801613702421</v>
       </c>
       <c r="D45" t="n">
-        <v>3.868869402416808</v>
+        <v>4.005528990749049</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.9680909362008</v>
+        <v>45.48498270772513</v>
       </c>
       <c r="D46" t="n">
-        <v>3.710956953715152</v>
+        <v>4.052209777935769</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.40807475009623</v>
+        <v>44.54086431694964</v>
       </c>
       <c r="D47" t="n">
-        <v>3.421971528167778</v>
+        <v>4.275221889000555</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.1807984294115</v>
+        <v>43.85829320778288</v>
       </c>
       <c r="D48" t="n">
-        <v>3.518160090702561</v>
+        <v>4.11859474204774</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.46030599323169</v>
+        <v>42.78912677221406</v>
       </c>
       <c r="D49" t="n">
-        <v>4.202057926093204</v>
+        <v>3.409931704220837</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.78901948024194</v>
+        <v>41.83226110924783</v>
       </c>
       <c r="D50" t="n">
-        <v>4.1031862217083</v>
+        <v>3.808796382087681</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.81573569176199</v>
+        <v>41.39943639238307</v>
       </c>
       <c r="D51" t="n">
-        <v>3.694912225501967</v>
+        <v>4.012397412143245</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.25022972182349</v>
+        <v>39.91422208027567</v>
       </c>
       <c r="D52" t="n">
-        <v>3.501609984940615</v>
+        <v>3.422262622330896</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.07269381904329</v>
+        <v>39.42980169333845</v>
       </c>
       <c r="D53" t="n">
-        <v>3.683919285516471</v>
+        <v>3.719467977995397</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.5604078597589</v>
+        <v>37.47134535755143</v>
       </c>
       <c r="D54" t="n">
-        <v>4.282728592417238</v>
+        <v>4.059915695793638</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.77316518718845</v>
+        <v>37.05202180455733</v>
       </c>
       <c r="D55" t="n">
-        <v>3.772126305322382</v>
+        <v>3.793406218553691</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.79404118243733</v>
+        <v>35.77415707785818</v>
       </c>
       <c r="D56" t="n">
-        <v>4.820251418943903</v>
+        <v>3.960435006537184</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.09234579058379</v>
+        <v>35.39770746181514</v>
       </c>
       <c r="D57" t="n">
-        <v>3.991513282382425</v>
+        <v>4.270961681231293</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.67873677274238</v>
+        <v>34.10138935383641</v>
       </c>
       <c r="D58" t="n">
-        <v>3.780595164898678</v>
+        <v>3.984932362543826</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.34285690130015</v>
+        <v>32.13551108524066</v>
       </c>
       <c r="D59" t="n">
-        <v>3.794743215510983</v>
+        <v>3.861151671992139</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.88153008755218</v>
+        <v>31.85862302578578</v>
       </c>
       <c r="D60" t="n">
-        <v>4.3328290881388</v>
+        <v>4.518928677544057</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.93972027884735</v>
+        <v>31.37610933877994</v>
       </c>
       <c r="D61" t="n">
-        <v>4.074550702254971</v>
+        <v>4.232906692226781</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91822002344916</v>
+        <v>30.32655795649303</v>
       </c>
       <c r="D62" t="n">
-        <v>4.635678768473787</v>
+        <v>3.667265676474243</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0596296550493</v>
+        <v>28.52384918890208</v>
       </c>
       <c r="D63" t="n">
-        <v>4.438611832177344</v>
+        <v>4.434289174359355</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.61373939454303</v>
+        <v>27.96054181504553</v>
       </c>
       <c r="D64" t="n">
-        <v>4.538488234803213</v>
+        <v>4.456318012664716</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.03943184108591</v>
+        <v>25.89472604190546</v>
       </c>
       <c r="D65" t="n">
-        <v>4.174592910507726</v>
+        <v>3.90671366313087</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.78887416009493</v>
+        <v>26.34792642814425</v>
       </c>
       <c r="D66" t="n">
-        <v>4.440124201446026</v>
+        <v>4.349380942697418</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99105589542017</v>
+        <v>25.31337646563314</v>
       </c>
       <c r="D67" t="n">
-        <v>4.458652382251623</v>
+        <v>4.425346720005439</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.26522433665406</v>
+        <v>24.4236255427449</v>
       </c>
       <c r="D68" t="n">
-        <v>4.69779661674681</v>
+        <v>3.960754234228915</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.57801941830905</v>
+        <v>23.04193848559045</v>
       </c>
       <c r="D69" t="n">
-        <v>4.194220323049649</v>
+        <v>4.32075021777045</v>
       </c>
     </row>
   </sheetData>
